--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264957</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347747</v>
+        <v>9584464.643054398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.334061947</v>
+        <v>8343623.81569186</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W2" t="n">
-        <v>129.3420634549345</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>129.3420634549345</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887087</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G5" t="n">
-        <v>146.8461210887087</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>83.13719072031593</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.5212001087837</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T6" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663199</v>
+        <v>127.429877995854</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
-        <v>88.09081815943067</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>58.26486945139486</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T9" t="n">
-        <v>71.46512258325507</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>346.5301246361457</v>
+        <v>308.0489052884178</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185513</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969275</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>23.06951998524177</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.38870494684776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.428652321558496</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>154.5318633148431</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>178.0282017012928</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>5.947536297053512</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>9.854692234071402</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9547360525115</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.0719952408891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>89.0091061689841</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>81.77200357366397</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>161.0196533349759</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>85.17289288835215</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>273.0327157765986</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>271.4516535495765</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>261.8486248670291</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>69.37663430902951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.6752559270063</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>210.8035104954933</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>41.9638792950082</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>324.2757366615657</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.77200357366344</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>248.1724460045691</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>313.3962193402697</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>340.9054364638993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.04735278065121</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>210.8035104954931</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>207.5754705974915</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>42.6455999594027</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>87.62154955555326</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>292.9594311738712</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>95.92502041856061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>280.6069641540612</v>
+        <v>142.4766448433867</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>184.4530101301296</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>238.3262268437785</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>20.95866062610959</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>15.6266482932002</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16.70871526400996</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>226.1528017278031</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H42" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.54735467376835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>190.6364615562254</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>149.9420435034466</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>173.0840193652032</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>39.56196572536961</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>63.9250279877511</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.74768968709669</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779182994</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588561</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548345</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W2" t="n">
-        <v>456.7359354104562</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X2" t="n">
-        <v>308.4065201693364</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.0771049282165</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616817</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415667</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M3" t="n">
-        <v>286.5382069752471</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530687</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O3" t="n">
-        <v>511.7941057756092</v>
+        <v>355.9587375475837</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548345</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548345</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="U3" t="n">
-        <v>456.7359354104562</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="V3" t="n">
-        <v>308.4065201693364</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282165</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="X3" t="n">
-        <v>160.0771049282165</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709669</v>
+        <v>75.36930558274285</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543243</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510274</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665712</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>439.0550691137149</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="C5" t="n">
-        <v>439.0550691137149</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="D5" t="n">
-        <v>439.0550691137149</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E5" t="n">
-        <v>308.4065201693365</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="F5" t="n">
-        <v>160.0771049282166</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G5" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183029</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458397</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066259</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588563</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735309</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548349</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548349</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548349</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548349</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548349</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="U5" t="n">
-        <v>439.0550691137149</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="V5" t="n">
-        <v>439.0550691137149</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="W5" t="n">
-        <v>439.0550691137149</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="X5" t="n">
-        <v>439.0550691137149</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="Y5" t="n">
-        <v>439.0550691137149</v>
+        <v>348.704346521884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137149</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="C6" t="n">
-        <v>439.0550691137149</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="D6" t="n">
-        <v>409.2356750644385</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9062598233185</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="F6" t="n">
-        <v>114.3717018502035</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G6" t="n">
-        <v>114.3717018502035</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H6" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616818</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415667</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752471</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603242</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408229</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200483</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548349</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548349</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548349</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137149</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137149</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137149</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137149</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137149</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137149</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543244</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510275</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>11.7476896870967</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>11.7476896870967</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>11.7476896870967</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>11.7476896870967</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.7476896870967</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.4024563932556</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="C8" t="n">
-        <v>293.4024563932556</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="D8" t="n">
-        <v>293.4024563932556</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="E8" t="n">
-        <v>103.9826713767709</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="F8" t="n">
-        <v>103.9826713767709</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X8" t="n">
-        <v>672.2420264262252</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.8222414097404</v>
+        <v>432.5641047942274</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="C9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="D9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>149.197147366983</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="T9" t="n">
-        <v>677.915356156941</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="U9" t="n">
-        <v>488.4955711404563</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="V9" t="n">
-        <v>299.0757861239715</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="W9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="X9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="Y9" t="n">
-        <v>299.0757861239715</v>
+        <v>208.0505508532405</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2011.826014609888</v>
+        <v>1181.546657016635</v>
       </c>
       <c r="C11" t="n">
-        <v>1642.863497669476</v>
+        <v>1181.546657016635</v>
       </c>
       <c r="D11" t="n">
-        <v>1284.597799062725</v>
+        <v>1181.546657016635</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>366.816839623272</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649821</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W11" t="n">
-        <v>2788.565186649821</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="X11" t="n">
-        <v>2788.565186649821</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="Y11" t="n">
-        <v>2398.425854674009</v>
+        <v>1568.146497080756</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562322</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504521</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104398</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789492</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.885386873581</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128147</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1742.924501893849</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1488.687145165648</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.70322035075</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C13" t="n">
-        <v>409.70322035075</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D13" t="n">
-        <v>259.5865809384143</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E13" t="n">
-        <v>259.5865809384143</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F13" t="n">
-        <v>259.5865809384143</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>92.71685897981527</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018942</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927333</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377462</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033661</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877106</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="U13" t="n">
-        <v>699.1203903877106</v>
+        <v>520.2893470405994</v>
       </c>
       <c r="V13" t="n">
-        <v>699.1203903877106</v>
+        <v>265.6048588347126</v>
       </c>
       <c r="W13" t="n">
-        <v>409.70322035075</v>
+        <v>265.6048588347126</v>
       </c>
       <c r="X13" t="n">
-        <v>409.70322035075</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="Y13" t="n">
-        <v>409.70322035075</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.410930903096</v>
+        <v>1646.324707429756</v>
       </c>
       <c r="C14" t="n">
-        <v>1476.448413962684</v>
+        <v>1277.362190489345</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>919.0964918825944</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410102</v>
+        <v>1646.324707429756</v>
       </c>
       <c r="W14" t="n">
-        <v>2609.016021139988</v>
+        <v>1646.324707429756</v>
       </c>
       <c r="X14" t="n">
-        <v>2235.550262878908</v>
+        <v>1646.324707429756</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.410930903096</v>
+        <v>1646.324707429756</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>464.9088565162513</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>840.8844923012732</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>633.1241935363194</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>518.4459618444147</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C16" t="n">
-        <v>518.4459618444147</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D16" t="n">
-        <v>518.4459618444147</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E16" t="n">
-        <v>370.5328682620216</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y16" t="n">
-        <v>700.0944266746544</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.306735920717</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.344218980305</v>
+        <v>869.0763550278987</v>
       </c>
       <c r="D17" t="n">
-        <v>817.078520373555</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796417</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.953133796417</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1887.813801820605</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>530.2513404403938</v>
+        <v>149.1100998399248</v>
       </c>
       <c r="C19" t="n">
-        <v>361.3151575124869</v>
+        <v>149.1100998399248</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>758.2408913384112</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>758.2408913384112</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V19" t="n">
-        <v>758.2408913384112</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W19" t="n">
-        <v>758.2408913384112</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="X19" t="n">
-        <v>530.2513404403938</v>
+        <v>149.1100998399248</v>
       </c>
       <c r="Y19" t="n">
-        <v>530.2513404403938</v>
+        <v>149.1100998399248</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1480.516858765517</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C20" t="n">
-        <v>1111.554341825106</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D20" t="n">
-        <v>753.2886432183552</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E20" t="n">
-        <v>753.2886432183552</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3027384287477</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2257.256030805451</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1867.116698829639</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574644</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S22" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T22" t="n">
-        <v>729.2011216450112</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U22" t="n">
-        <v>455.0075322009945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V22" t="n">
-        <v>455.0075322009945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W22" t="n">
-        <v>455.0075322009945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X22" t="n">
-        <v>455.0075322009945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.2149530574644</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1594.601034732593</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C23" t="n">
-        <v>1225.638517792182</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D23" t="n">
-        <v>867.3728191854311</v>
+        <v>1081.572080845302</v>
       </c>
       <c r="E23" t="n">
-        <v>481.5845665871869</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2354.666633057795</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1981.200874796715</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1981.200874796715</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>507.4345062145375</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>294.5016673302008</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302008</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2303.170539913434</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E26" t="n">
         <v>1190.154071768027</v>
@@ -6226,25 +6226,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X26" t="n">
-        <v>2630.721789066531</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y26" t="n">
-        <v>2303.170539913434</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6420,16 +6420,16 @@
         <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379416</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="W28" t="n">
-        <v>377.0996507379416</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X28" t="n">
-        <v>149.1100998399243</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.1100998399243</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.597933493125</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.635416552713</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D29" t="n">
-        <v>909.3697179459625</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6460,10 +6460,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6472,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539437</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.546699278357</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.197773557246</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.8584051179042</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>84.74176570556847</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6648,25 +6648,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218342</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>403.7945880458111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3282.529458013814</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3028.99898128765</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.936093944079</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2345.167438673965</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.167438673965</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y32" t="n">
-        <v>2345.167438673965</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>444.4359021818241</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>155.0187321448635</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.0187321448635</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.480899540949</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C35" t="n">
-        <v>1733.518382600537</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="D35" t="n">
-        <v>1375.252683993787</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="E35" t="n">
-        <v>989.4644313955425</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>578.478526605935</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>163.4060764509315</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136265</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866151</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605071</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y35" t="n">
-        <v>2489.080739605071</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
         <v>66.5121164321834</v>
@@ -7119,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T37" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U37" t="n">
-        <v>355.929286469144</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="V37" t="n">
-        <v>355.929286469144</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="W37" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="X37" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.483610522581</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X38" t="n">
-        <v>2531.483610522581</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y38" t="n">
-        <v>2531.483610522581</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7371,13 +7371,13 @@
         <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="X40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.236214140705</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C41" t="n">
-        <v>1295.236214140705</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D41" t="n">
-        <v>1295.236214140705</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E41" t="n">
-        <v>909.4479615424611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F41" t="n">
-        <v>498.4620567528536</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>83.38960659785005</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>83.38960659785005</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.975386180639</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204827</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.6003534763939</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6003534763939</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D43" t="n">
-        <v>120.6003534763939</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>120.6003534763939</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6003534763939</v>
+        <v>728.3249234381592</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.6003534763939</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1533.918936517076</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1164.956419576664</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1164.956419576664</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X44" t="n">
-        <v>1920.518776581197</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y44" t="n">
-        <v>1920.518776581197</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>403.4802848832069</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C46" t="n">
-        <v>363.5187033424295</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812242</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X46" t="n">
-        <v>403.4802848832069</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y46" t="n">
-        <v>403.4802848832069</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>283.6536044371663</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328738</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880636</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W2" t="n">
-        <v>219.8989052624785</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>99.25663510664882</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827331</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345808</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>96.52685491898978</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V3" t="n">
-        <v>85.95446606071664</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W3" t="n">
-        <v>104.848862072211</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.83657468859573</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818781</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776027</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474364</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482526</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270549</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.1089392838262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>252.5883066173272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0299246530027</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G5" t="n">
-        <v>266.3980159715229</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328738</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880636</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827355</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>303.1007479357377</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>117.9238654558551</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>10.79895936669223</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>32.95655226846017</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>37.57058809429805</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827331</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345808</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>40.54833922112491</v>
       </c>
       <c r="T6" t="n">
-        <v>48.87899782081587</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359959</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,55 +22956,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818781</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776027</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474364</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482526</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270549</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>186.5098939567912</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>255.3039636676265</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G8" t="n">
-        <v>325.0070150706273</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="9">
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>86.80434294198902</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>6.638896330325053</v>
       </c>
       <c r="T9" t="n">
-        <v>123.9444752087462</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>114.7859889482797</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>266.6760635903374</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>35.40024543611605</v>
+        <v>73.88146478384402</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904884</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721429</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>209.7310671641835</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>119.6371033121805</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923922</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.5946912842555</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>224.2810030674787</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>200.1511783058398</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>149.7240567688421</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>166.7609626912622</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.9772879478659</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10.46631197041972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.66184642259151</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>265.6739354516989</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>66.84346944454839</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>58.52929594119325</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>137.8890098768549</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>16.84412522327463</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>14.76018465603642</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>120.0817452052327</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>279.8643344083835</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.75870671956284</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,22 +24414,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>41.33413282833473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>323.3090124759993</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>61.96220199448788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.05997660827386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.965197319258891</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>41.28682228041322</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.33250219215432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>128.386609865918</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>75.7194878410979</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>175.1583710659891</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>161.2723701802174</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>57.79949846737799</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,10 +25128,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>88.97093889839056</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>198.6827439687598</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.604874051551633</v>
+        <v>143.7351933622262</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.2808315333509</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>126.9466649272291</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>124.4623873968217</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>270.8963500433908</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>24.86821450891599</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>143.578298950666</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>92.88660797280082</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>35.07319383281174</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>219.7890571750225</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>213.1539192908504</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6848553732582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26079,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>154.6596253643437</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053786</v>
+        <v>362616.6230072702</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053786</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.05806134</v>
+        <v>408111.9599248169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271862</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271861</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.590027186</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828572</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.8307634372</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="H2" t="n">
         <v>279684.830763437</v>
@@ -26355,7 +26355,7 @@
         <v>279684.8307634371</v>
       </c>
       <c r="P2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751305</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.8038407444</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>394942.2080289244</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>262827.3641644187</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613399</v>
+        <v>24245.22799179786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393711</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904863</v>
+        <v>8241.274813353699</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>99043.58793293637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290936</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602629</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602629</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469138</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>51571.48185587224</v>
       </c>
       <c r="F5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.1420374582</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767236</v>
+        <v>46295.67344995518</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926672</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987994</v>
+        <v>-228144.0596041095</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.8478348679</v>
+        <v>166798.1484248152</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.847834868</v>
+        <v>-58440.92048919793</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752208</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.441328734</v>
+        <v>180141.2156834228</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.847834868</v>
+        <v>199381.225232827</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858194</v>
+        <v>196145.168861867</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699062</v>
+        <v>105342.8557422842</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.8478348681</v>
+        <v>134769.3584823114</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572209</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376844</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887087</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>343.881498336534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>236.0660360556145</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761115</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887083</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761093</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.28649867613</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761115</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761299</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766338</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695511</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961054</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611126</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339634</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206854</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
-        <v>223.2813342651924</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>148.8239625747597</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050587</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297036</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864957</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.2856027012083</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674035</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113012</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766338</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695511</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961054</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611126</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339634</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206854</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>238.7894450985626</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050587</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297036</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864957</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.2856027012083</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674035</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113012</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508276</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958415</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409258</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258713</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840427</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934781</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>612.380816683901</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190906</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662299</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928396</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>215.585537814132</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699492</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175397</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095116</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913578</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616799</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730379</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152844</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884506</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475633</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057846</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017476</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490427</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595397</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099893</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153091</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>26.8289072773564</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978877</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419855</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7718465704379</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718123</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.125993899784</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040809</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431463</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986671</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
-        <v>80.68508982074799</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679324</v>
+        <v>14.84955516042941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945191</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394256</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813573</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.7718465704379</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718123</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.125993899784</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040809</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431463</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4477330152293</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679324</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592408</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945191</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394256</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813573</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808907</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140555</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662054</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873101</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974038</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109603</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>148.3119886183901</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>46.65087734093956</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169988</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818057</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510196</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319511</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>294.3022689440061</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.675167233233</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892912</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>49.8461236785073</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563533</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806456</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769688</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084167</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
